--- a/target/test-classes/DataProvides.xlsx
+++ b/target/test-classes/DataProvides.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanxian/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanxian/IdeaProjects/oligei/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3464EE4D-1B53-E445-A2D3-1D213C61F4DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D00B412-E544-1241-AD21-76B8AD81ED0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="460" windowWidth="27840" windowHeight="16580" xr2:uid="{2C011B13-CAF1-9E44-AA61-9E11D77AE2EB}"/>
+    <workbookView xWindow="520" yWindow="460" windowWidth="27840" windowHeight="16580" activeTab="1" xr2:uid="{2C011B13-CAF1-9E44-AA61-9E11D77AE2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>apiID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,12 +121,20 @@
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>RequestUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://test.lemonban.com/lmcanon_web_auto/mng/login.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -150,6 +159,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -168,12 +195,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -183,9 +213,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -499,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82B303C-5DC0-0949-8854-15325C3904F2}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -651,4 +688,93 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B7A6E1-B187-534B-B889-F72690B915B4}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="94.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="21">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{92490481-7517-6E4F-82B0-6F45DBA2AC37}"/>
+    <hyperlink ref="B3:B8" r:id="rId2" display="http://test.lemonban.com/lmcanon_web_auto/mng/login.html" xr:uid="{56513DC1-FCBE-384F-A84A-02A2A4E0FE80}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{A32C0001-5A4E-4849-9617-8103282C1AFB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>